--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44597,6 +44597,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44632,6 +44632,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44669,6 +44669,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44704,6 +44704,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44741,6 +44741,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44776,6 +44776,43 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44813,6 +44813,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44850,6 +44850,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>340000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44885,6 +44885,41 @@
         <v>340000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44920,6 +44920,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>32800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44955,6 +44955,41 @@
         <v>32800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>419000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44990,6 +44990,41 @@
         <v>419000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45025,6 +45025,78 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>203000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45097,6 +45097,78 @@
         <v>203000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>214100</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45169,6 +45169,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45206,6 +45206,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>54900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45241,6 +45241,43 @@
         <v>54900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45278,6 +45278,41 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45313,6 +45313,76 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45383,6 +45383,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45418,6 +45418,41 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1712"/>
+  <dimension ref="A1:I1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62148,6 +62148,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1713" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>51300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1713"/>
+  <dimension ref="A1:I1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62183,6 +62183,41 @@
         <v>51300</v>
       </c>
     </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1714"/>
+  <dimension ref="A1:I1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62218,6 +62218,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1715" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1715"/>
+  <dimension ref="A1:I1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62253,6 +62253,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1716"/>
+  <dimension ref="A1:I1717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62288,6 +62288,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1717" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1717"/>
+  <dimension ref="A1:I1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62325,6 +62325,41 @@
         </is>
       </c>
     </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1718" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1718"/>
+  <dimension ref="A1:I1719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62360,6 +62360,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1719" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1719"/>
+  <dimension ref="A1:I1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62395,6 +62395,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1720" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1720"/>
+  <dimension ref="A1:I1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62432,6 +62432,43 @@
         </is>
       </c>
     </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1721" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1721"/>
+  <dimension ref="A1:I1722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62469,6 +62469,43 @@
         </is>
       </c>
     </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1722" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1722"/>
+  <dimension ref="A1:I1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62506,6 +62506,43 @@
         </is>
       </c>
     </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1723" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1723"/>
+  <dimension ref="A1:I1724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62543,6 +62543,43 @@
         </is>
       </c>
     </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1724" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1724" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7119.xlsx
+++ b/data/7119.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1724"/>
+  <dimension ref="A1:I1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62580,6 +62580,43 @@
         </is>
       </c>
     </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>DEGEM</t>
+        </is>
+      </c>
+      <c r="E1725" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1725" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
